--- a/excel-json-translate/output-files/js/maidian.js.xlsx
+++ b/excel-json-translate/output-files/js/maidian.js.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,95 +412,55 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Juno (Mercury) - SEARCH - Manage Strategy</v>
+        <v>Vesta (Insignt) - BY CHANNEL - Search Programs Insight</v>
       </c>
       <c r="B2" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/search/manage-strategy</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/channel/search</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Juno (Mercury) - SEARCH - Add New Strategy</v>
+        <v>Vesta (Insignt) - BY CHANNEL - HPJFY Programs Insight</v>
       </c>
       <c r="B3" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/search/add-strategy</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/channel/hpjfy</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Juno (Mercury) - SEARCH - Configure Business</v>
+        <v>Vesta (Insignt) - BY PROGRAM - ELP Insight</v>
       </c>
       <c r="B4" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/search/manage-business</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/program/elp</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Juno (Mercury) - SEARCH - Configure Layers</v>
+        <v>Vesta (Insignt) - BY PROGRAM - New Items Insight</v>
       </c>
       <c r="B5" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/search/manage-layers</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/program/new-items</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Juno (Mercury) - RECOMMENDATION - Manage Strategy</v>
+        <v>Vesta (Insignt) - BY PROGRAM - ASC HC 2.0 Insight</v>
       </c>
       <c r="B6" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/recommendation/manage-strategy</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/program/asc-hc</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Juno (Mercury) - RECOMMENDATION - Add New Strategy</v>
+        <v>Vesta (Insignt) - BY PROGRAM - Balm Insight</v>
       </c>
       <c r="B7" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/recommendation/add-strategy</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Juno (Mercury) - RECOMMENDATION - Configure Business</v>
-      </c>
-      <c r="B8" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/recommendation/manage-business</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Juno (Mercury) - RECOMMENDATION - Configure Layers</v>
-      </c>
-      <c r="B9" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/recommendation/manage-layers</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Juno (Mercury) - COMMON - Manage Strategy</v>
-      </c>
-      <c r="B10" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/common/manage</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Juno (Mercury) - COMMON - Add New Strategy</v>
-      </c>
-      <c r="B11" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/common/create</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Juno (Mercury) - COMMON - Configure Business</v>
-      </c>
-      <c r="B12" t="str">
-        <v>https://marvel.alibaba-inc.com/#/juno/common/business</v>
+        <v>https://pre-marvel.alibaba-inc.com/#/seed/program/balm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
   </ignoredErrors>
 </worksheet>
 </file>